--- a/biology/Zoologie/Ahaetulla_prasina/Ahaetulla_prasina.xlsx
+++ b/biology/Zoologie/Ahaetulla_prasina/Ahaetulla_prasina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ahaetulla prasina  est une espèce de serpents de la famille des Colubridae[1].
-C'est un serpent liane venimeux mais son venin est habituellement non dangereux pour l'Homme[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahaetulla prasina  est une espèce de serpents de la famille des Colubridae.
+C'est un serpent liane venimeux mais son venin est habituellement non dangereux pour l'Homme.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre sur un vaste territoire couvrant la Birmanie, le Bangladesh, le Bhoutan, le Brunei, le Cambodge, une partie de la Chine (Hong Kong et une zone allant de l'ouest des provinces de Guizhou et du Yunnan jusqu'au sud-est du Xizang), les États d'Arunachal Pradesh, d'Assam et du Sikkim en Inde, l'Indonésie, le Laos, la Malaisie, les Philippines, Singapour, la Thaïlande et le Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre sur un vaste territoire couvrant la Birmanie, le Bangladesh, le Bhoutan, le Brunei, le Cambodge, une partie de la Chine (Hong Kong et une zone allant de l'ouest des provinces de Guizhou et du Yunnan jusqu'au sud-est du Xizang), les États d'Arunachal Pradesh, d'Assam et du Sikkim en Inde, l'Indonésie, le Laos, la Malaisie, les Philippines, Singapour, la Thaïlande et le Viêt Nam.
 </t>
         </is>
       </c>
@@ -543,16 +557,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ahaetulla prasina est une espèce de serpent essentiellement diurne[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahaetulla prasina est une espèce de serpent essentiellement diurne.
 Ce serpent peut mesurer jusqu'à 1,8 m mais son corps est très mince.
-Sa coloration peut être très variable : verte, grise, jaune ou  brune...[1]. Mais sa couleur habituelle est, comme l'indique son nom en langue thaïlandaise (งูเขียวหัวจิ้งจก /ngu khieow hua jingjok / serpent vert à tête de lézard), la couleur verte. 
+Sa coloration peut être très variable : verte, grise, jaune ou  brune.... Mais sa couleur habituelle est, comme l'indique son nom en langue thaïlandaise (งูเขียวหัวจิ้งจก /ngu khieow hua jingjok / serpent vert à tête de lézard), la couleur verte. 
 			"Vert", île de Luçon, Philippines
 			"Jaune", île de Luçon, Philippines
 			"Blanc", parc national de Khao Yai, Thaïlande
 			"Orange", parc national de Khao Yai, Thaïlande
-Cette espèce a la particularité de pouvoir ouvrir la gueule à 180°[2].
+Cette espèce a la particularité de pouvoir ouvrir la gueule à 180°.
 </t>
         </is>
       </c>
@@ -581,12 +597,14 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un serpent carnivore.
 Quand il chasse, il sort en permanence sa longue langue.
 Quand il saisit une proie, il tente de lui planter le plus vite possible dans le corps ses crochets venimeux situés à l'arrière de sa mâchoire supérieure.
-Il se nourrit de reptiles et d'amphibiens, en particulier de lézards et de grenouilles arboricoles[3].
+Il se nourrit de reptiles et d'amphibiens, en particulier de lézards et de grenouilles arboricoles.
 </t>
         </is>
       </c>
@@ -615,10 +633,12 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est ovovivipare[1].
-La femelle Ahaetulla prasina pond non pas des œufs mais des petits serpents vivants qui, immédiatement, se mettent à grimper dans les branches des arbres[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est ovovivipare.
+La femelle Ahaetulla prasina pond non pas des œufs mais des petits serpents vivants qui, immédiatement, se mettent à grimper dans les branches des arbres.
 </t>
         </is>
       </c>
@@ -647,9 +667,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Ahaetulla prasina prasina (Boie, 1827)
 Ahaetulla prasina medioxima Lazell, 2002 - République populaire de Chine
 Ahaetulla prasina preocularis (Taylor, 1922) - Philippines
@@ -681,7 +703,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(de) Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral)
 (en) Taylor, 1922 : The Snakes of the Philippine Islands. Bureau of Science Manila pub, n. 16, p. 1-312 (texte intégral).
